--- a/COST.xlsx
+++ b/COST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB91F44-D2F2-4573-8E55-17D28A2B7137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E7CD2A-101E-43AA-9759-D100BA06ECC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21490" yWindow="1180" windowWidth="16750" windowHeight="19200" activeTab="1" xr2:uid="{A417974C-84E3-45BB-9954-F43481646C86}"/>
+    <workbookView xWindow="37000" yWindow="4170" windowWidth="32770" windowHeight="15380" xr2:uid="{A417974C-84E3-45BB-9954-F43481646C86}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -183,7 +183,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -522,7 +522,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E02ACE3-046E-4AC2-8D68-BB925063D7D7}">
   <dimension ref="I2:K7"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -533,8 +535,8 @@
       <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="2">
-        <v>1016</v>
+      <c r="J2" s="4">
+        <v>981.25</v>
       </c>
     </row>
     <row r="3" spans="9:11" x14ac:dyDescent="0.25">
@@ -554,7 +556,7 @@
       </c>
       <c r="J4" s="2">
         <f>+J2*J3</f>
-        <v>452120</v>
+        <v>436656.25</v>
       </c>
       <c r="K4" s="5"/>
     </row>
@@ -587,7 +589,7 @@
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>444717</v>
+        <v>429253.25</v>
       </c>
     </row>
   </sheetData>
@@ -599,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143457DD-B4A5-4633-B41D-28FA9C054CD1}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -717,39 +719,39 @@
         <v>7</v>
       </c>
       <c r="D5" s="3">
-        <f>+D3+D4</f>
+        <f t="shared" ref="D5:L5" si="0">+D3+D4</f>
         <v>55266</v>
       </c>
       <c r="E5" s="3">
-        <f>+E3+E4</f>
+        <f t="shared" si="0"/>
         <v>53648</v>
       </c>
       <c r="F5" s="3">
-        <f>+F3+F4</f>
+        <f t="shared" si="0"/>
         <v>78939</v>
       </c>
       <c r="G5" s="3">
-        <f>+G3+G4</f>
+        <f t="shared" si="0"/>
         <v>57799</v>
       </c>
       <c r="H5" s="3">
-        <f>+H3+H4</f>
+        <f t="shared" si="0"/>
         <v>58442</v>
       </c>
       <c r="I5" s="3">
-        <f>+I3+I4</f>
+        <f t="shared" si="0"/>
         <v>58515</v>
       </c>
       <c r="J5" s="3">
-        <f>+J3+J4</f>
+        <f t="shared" si="0"/>
         <v>79697</v>
       </c>
       <c r="K5" s="3">
-        <f>+K3+K4</f>
+        <f t="shared" si="0"/>
         <v>62151</v>
       </c>
       <c r="L5" s="3">
-        <f>+L3+L4</f>
+        <f t="shared" si="0"/>
         <v>63723</v>
       </c>
     </row>
@@ -790,39 +792,39 @@
         <v>16</v>
       </c>
       <c r="D7" s="2">
-        <f>+D5-D6</f>
+        <f t="shared" ref="D7:L7" si="1">+D5-D6</f>
         <v>6843</v>
       </c>
       <c r="E7" s="2">
-        <f>+E5-E6</f>
+        <f t="shared" si="1"/>
         <v>6473</v>
       </c>
       <c r="F7" s="2">
-        <f>+F5-F6</f>
+        <f t="shared" si="1"/>
         <v>9720</v>
       </c>
       <c r="G7" s="2">
-        <f>+G5-G6</f>
+        <f t="shared" si="1"/>
         <v>7342</v>
       </c>
       <c r="H7" s="2">
-        <f>+H5-H6</f>
+        <f t="shared" si="1"/>
         <v>7302</v>
       </c>
       <c r="I7" s="2">
-        <f>+I5-I6</f>
+        <f t="shared" si="1"/>
         <v>7342</v>
       </c>
       <c r="J7" s="2">
-        <f>+J5-J6</f>
+        <f t="shared" si="1"/>
         <v>10109</v>
       </c>
       <c r="K7" s="2">
-        <f>+K5-K6</f>
+        <f t="shared" si="1"/>
         <v>8042</v>
       </c>
       <c r="L7" s="2">
-        <f>+L5-L6</f>
+        <f t="shared" si="1"/>
         <v>7979</v>
       </c>
     </row>
@@ -863,39 +865,39 @@
         <v>18</v>
       </c>
       <c r="D9" s="2">
-        <f>+D7-D8</f>
+        <f t="shared" ref="D9:L9" si="2">+D7-D8</f>
         <v>1903</v>
       </c>
       <c r="E9" s="2">
-        <f>+E7-E8</f>
+        <f t="shared" si="2"/>
         <v>1679</v>
       </c>
       <c r="F9" s="2">
-        <f>+F7-F8</f>
+        <f t="shared" si="2"/>
         <v>2781</v>
       </c>
       <c r="G9" s="2">
-        <f>+G7-G8</f>
+        <f t="shared" si="2"/>
         <v>1984</v>
       </c>
       <c r="H9" s="2">
-        <f>+H7-H8</f>
+        <f t="shared" si="2"/>
         <v>2062</v>
       </c>
       <c r="I9" s="2">
-        <f>+I7-I8</f>
+        <f t="shared" si="2"/>
         <v>2197</v>
       </c>
       <c r="J9" s="2">
-        <f>+J7-J8</f>
+        <f t="shared" si="2"/>
         <v>3042</v>
       </c>
       <c r="K9" s="2">
-        <f>+K7-K8</f>
+        <f t="shared" si="2"/>
         <v>2196</v>
       </c>
       <c r="L9" s="2">
-        <f>+L7-L8</f>
+        <f t="shared" si="2"/>
         <v>2316</v>
       </c>
     </row>
@@ -946,39 +948,39 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <f>+D9+D10</f>
+        <f t="shared" ref="D11:L11" si="3">+D9+D10</f>
         <v>1983</v>
       </c>
       <c r="E11" s="2">
-        <f>+E9+E10</f>
+        <f t="shared" si="3"/>
         <v>1771</v>
       </c>
       <c r="F11" s="2">
-        <f>+F9+F10</f>
+        <f t="shared" si="3"/>
         <v>2963</v>
       </c>
       <c r="G11" s="2">
-        <f>+G9+G10</f>
+        <f t="shared" si="3"/>
         <v>2106</v>
       </c>
       <c r="H11" s="2">
-        <f>+H9+H10</f>
+        <f t="shared" si="3"/>
         <v>2237</v>
       </c>
       <c r="I11" s="2">
-        <f>+I9+I10</f>
+        <f t="shared" si="3"/>
         <v>2284</v>
       </c>
       <c r="J11" s="2">
-        <f>+J9+J10</f>
+        <f t="shared" si="3"/>
         <v>3113</v>
       </c>
       <c r="K11" s="2">
-        <f>+K9+K10</f>
+        <f t="shared" si="3"/>
         <v>2306</v>
       </c>
       <c r="L11" s="2">
-        <f>+L9+L10</f>
+        <f t="shared" si="3"/>
         <v>2422</v>
       </c>
     </row>
@@ -1020,39 +1022,39 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <f>+D11-D12</f>
+        <f t="shared" ref="D13:L13" si="4">+D11-D12</f>
         <v>1466</v>
       </c>
       <c r="E13" s="2">
-        <f>+E11-E12</f>
+        <f t="shared" si="4"/>
         <v>1302</v>
       </c>
       <c r="F13" s="2">
-        <f>+F11-F12</f>
+        <f t="shared" si="4"/>
         <v>2160</v>
       </c>
       <c r="G13" s="2">
-        <f>+G11-G12</f>
+        <f t="shared" si="4"/>
         <v>1589</v>
       </c>
       <c r="H13" s="2">
-        <f>+H11-H12</f>
+        <f t="shared" si="4"/>
         <v>1743</v>
       </c>
       <c r="I13" s="2">
-        <f>+I11-I12</f>
+        <f t="shared" si="4"/>
         <v>1681</v>
       </c>
       <c r="J13" s="2">
-        <f>+J11-J12</f>
+        <f t="shared" si="4"/>
         <v>2354</v>
       </c>
       <c r="K13" s="2">
-        <f>+K11-K12</f>
+        <f t="shared" si="4"/>
         <v>1798</v>
       </c>
       <c r="L13" s="2">
-        <f>+L11-L12</f>
+        <f t="shared" si="4"/>
         <v>1788</v>
       </c>
     </row>
@@ -1062,39 +1064,39 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4">
-        <f>+D13/D15</f>
+        <f t="shared" ref="D14:L14" si="5">+D13/D15</f>
         <v>3.2982732437144944</v>
       </c>
       <c r="E14" s="4">
-        <f>+E13/E15</f>
+        <f t="shared" si="5"/>
         <v>2.9300567107750473</v>
       </c>
       <c r="F14" s="4">
-        <f>+F13/F15</f>
+        <f t="shared" si="5"/>
         <v>4.8599939250075934</v>
       </c>
       <c r="G14" s="4">
-        <f>+G13/G15</f>
+        <f t="shared" si="5"/>
         <v>3.575583423154209</v>
       </c>
       <c r="H14" s="4">
-        <f>+H13/H15</f>
+        <f t="shared" si="5"/>
         <v>3.9190204022898052</v>
       </c>
       <c r="I14" s="4">
-        <f>+I13/I15</f>
+        <f t="shared" si="5"/>
         <v>3.7789887327236595</v>
       </c>
       <c r="J14" s="4">
-        <f>+J13/J15</f>
+        <f t="shared" si="5"/>
         <v>5.2901610645044581</v>
       </c>
       <c r="K14" s="4">
-        <f>+K13/K15</f>
+        <f t="shared" si="5"/>
         <v>4.0414393637992223</v>
       </c>
       <c r="L14" s="4">
-        <f>+L13/L15</f>
+        <f t="shared" si="5"/>
         <v>4.0190071164298269</v>
       </c>
     </row>
@@ -1133,19 +1135,19 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H17" s="8">
-        <f t="shared" ref="H17:K17" si="0">+H5/D5-1</f>
+        <f t="shared" ref="H17:K17" si="6">+H5/D5-1</f>
         <v>5.7467520717982223E-2</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>9.0720996122874986E-2</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>9.6023511825586993E-3</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7.5295420335991903E-2</v>
       </c>
       <c r="L17" s="8">
@@ -1236,39 +1238,39 @@
         <v>22</v>
       </c>
       <c r="D21" s="2">
-        <f>+D19+D20</f>
+        <f t="shared" ref="D21:L21" si="7">+D19+D20</f>
         <v>3855</v>
       </c>
       <c r="E21" s="2">
-        <f>+E19+E20</f>
+        <f t="shared" si="7"/>
         <v>721</v>
       </c>
       <c r="F21" s="2">
-        <f>+F19+F20</f>
+        <f t="shared" si="7"/>
         <v>4870</v>
       </c>
       <c r="G21" s="2">
-        <f>+G19+G20</f>
+        <f t="shared" si="7"/>
         <v>3611</v>
       </c>
       <c r="H21" s="2">
-        <f>+H19+H20</f>
+        <f t="shared" si="7"/>
         <v>-300</v>
       </c>
       <c r="I21" s="2">
-        <f>+I19+I20</f>
+        <f t="shared" si="7"/>
         <v>1937</v>
       </c>
       <c r="J21" s="2">
-        <f>+J19+J20</f>
+        <f t="shared" si="7"/>
         <v>1381</v>
       </c>
       <c r="K21" s="2">
-        <f>+K19+K20</f>
+        <f t="shared" si="7"/>
         <v>1996</v>
       </c>
       <c r="L21" s="2">
-        <f>+L19+L20</f>
+        <f t="shared" si="7"/>
         <v>1611</v>
       </c>
     </row>
